--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD45FB-C960-495D-AF84-D12D76808B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F953C0-A1D5-420F-BDCA-3F45F00BA06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3475/T1813/1881</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653</t>
   </si>
 </sst>
 </file>
@@ -638,6 +645,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -663,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -685,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -721,12 +840,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,12 +865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D82E19-6A1E-466E-90B1-76D639D57DC1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -797,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -833,12 +952,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F953C0-A1D5-420F-BDCA-3F45F00BA06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820A4E3-6435-4A88-8D7C-4B8A4F50173A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459</t>
   </si>
 </sst>
 </file>
@@ -646,7 +653,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -975,4 +982,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838A2E2F-BC60-4075-896D-30FE45E26428}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820A4E3-6435-4A88-8D7C-4B8A4F50173A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74F623-26E1-4108-A5CE-EB72AB7C5CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>NGC-3479/T2459</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -988,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838A2E2F-BC60-4075-896D-30FE45E26428}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,4 +1101,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC0D1D9-725B-4628-BB46-9B5D1CB6FA48}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74F623-26E1-4108-A5CE-EB72AB7C5CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BA944-F16C-4B55-8AB4-F54E0E13825A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC0D1D9-725B-4628-BB46-9B5D1CB6FA48}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,4 +1220,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F572F-9C84-4CFF-83B3-8FF2BE2EA52E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BA944-F16C-4B55-8AB4-F54E0E13825A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22208036-5B0C-4724-8420-5DA349B747C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F572F-9C84-4CFF-83B3-8FF2BE2EA52E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,4 +1339,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3207DB4C-2CE9-45F6-B07D-E3982717012F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22208036-5B0C-4724-8420-5DA349B747C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B6644-80BC-4379-989C-FA27AEB66E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2485/T2494</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -560,15 +567,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -576,7 +583,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -588,7 +595,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -598,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,51 +617,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -677,15 +684,15 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -693,7 +700,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +712,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -715,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,46 +734,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -789,15 +796,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -805,7 +812,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,7 +824,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,46 +846,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -901,15 +908,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -917,7 +924,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -929,7 +936,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -939,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,46 +958,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1013,15 +1020,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1036,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1048,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1063,46 +1070,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1125,15 +1132,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1148,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1160,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1175,46 +1182,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1237,15 +1244,15 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1260,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1272,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1287,46 +1294,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1345,18 +1352,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3207DB4C-2CE9-45F6-B07D-E3982717012F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1371,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1383,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1398,46 +1405,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E725533-680A-4538-AF03-C3DFE89B7F87}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B6644-80BC-4379-989C-FA27AEB66E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EA299-8FBE-4B7F-B73C-F47F0F392E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
+    <sheet name="Greece" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3189</t>
   </si>
 </sst>
 </file>
@@ -567,15 +574,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -583,7 +590,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,7 +602,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,52 +624,163 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9A7FD-569F-45F1-AC63-93C31D00380A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -684,15 +802,15 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -700,7 +818,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +830,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,46 +852,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -796,15 +914,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -812,7 +930,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -824,7 +942,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,46 +964,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -908,15 +1026,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -924,7 +1042,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -936,7 +1054,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,46 +1076,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1020,15 +1138,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1154,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1166,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,46 +1188,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1132,15 +1250,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1266,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1278,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1182,46 +1300,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1244,15 +1362,15 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1378,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1390,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,46 +1412,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1356,14 +1474,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1489,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1501,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1405,46 +1523,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1463,18 +1581,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E725533-680A-4538-AF03-C3DFE89B7F87}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1600,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1612,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1516,46 +1634,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EA299-8FBE-4B7F-B73C-F47F0F392E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1357908-6F48-46E6-A38F-7AB058146747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
     <sheet name="Greece" sheetId="20" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
+    <sheet name="Austria" sheetId="22" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +150,24 @@
   </si>
   <si>
     <t>NGC-4119/T3189</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -687,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9A7FD-569F-45F1-AC63-93C31D00380A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -772,6 +793,337 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61187D45-9E3C-4765-BAE8-7F92CF3EE902}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383FC0C-DFA2-427A-9D50-BBEADBFF71C8}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A32583C-0DD5-4E07-AF4D-23BBF5476BDE}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1357908-6F48-46E6-A38F-7AB058146747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C17D0C-81C0-4745-B7FA-05C136B6B4C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
     <sheet name="Austria" sheetId="22" r:id="rId12"/>
     <sheet name="Denmark" sheetId="23" r:id="rId13"/>
+    <sheet name="Russia" sheetId="25" r:id="rId14"/>
+    <sheet name="Finland" sheetId="26" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -168,6 +171,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A32583C-0DD5-4E07-AF4D-23BBF5476BDE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1124,6 +1145,339 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3CBD4A-DF4A-4240-A1CF-7D85BEC3D49C}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2A090-D498-4254-B20E-325056052AD5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847E05B5-D846-49B6-A343-5DD4D4AD9337}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C17D0C-81C0-4745-B7FA-05C136B6B4C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C0A7E-A5C1-4799-AEF9-EDDC95AC1B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId14"/>
     <sheet name="Finland" sheetId="26" r:id="rId15"/>
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
+    <sheet name="Norway" sheetId="28" r:id="rId17"/>
+    <sheet name="Poland" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -189,6 +191,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3086/T3085</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3037/T3120</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -727,10 +747,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9A7FD-569F-45F1-AC63-93C31D00380A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,26 +823,36 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1393,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847E05B5-D846-49B6-A343-5DD4D4AD9337}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
@@ -1487,6 +1517,248 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1408F8A-528E-4A82-A9DB-F701BB2DFDFA}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD53E77-4615-4840-8D76-71D2D810CB7F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1838,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838A2E2F-BC60-4075-896D-30FE45E26428}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,26 +2187,36 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2285,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E725533-680A-4538-AF03-C3DFE89B7F87}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,26 +2643,36 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C0A7E-A5C1-4799-AEF9-EDDC95AC1B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB4A28-F486-4268-8067-D0C632774F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -1421,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847E05B5-D846-49B6-A343-5DD4D4AD9337}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,16 +1507,26 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1655,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD53E77-4615-4840-8D76-71D2D810CB7F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3207DB4C-2CE9-45F6-B07D-E3982717012F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,11 +2557,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB4A28-F486-4268-8067-D0C632774F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA95169-1F2A-40AB-A9E5-F1D355985B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61187D45-9E3C-4765-BAE8-7F92CF3EE902}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,11 +960,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -980,10 +990,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383FC0C-DFA2-427A-9D50-BBEADBFF71C8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,11 +1077,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1087,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A32583C-0DD5-4E07-AF4D-23BBF5476BDE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,11 +1199,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2242,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC0D1D9-725B-4628-BB46-9B5D1CB6FA48}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,11 +2364,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2354,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F572F-9C84-4CFF-83B3-8FF2BE2EA52E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2446,11 +2486,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2468,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3207DB4C-2CE9-45F6-B07D-E3982717012F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA95169-1F2A-40AB-A9E5-F1D355985B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B395BD1A-9575-4337-A8CA-2FD919A3D0CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -1109,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A32583C-0DD5-4E07-AF4D-23BBF5476BDE}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
@@ -1229,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3CBD4A-DF4A-4240-A1CF-7D85BEC3D49C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,7 +1242,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1320,11 +1320,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1340,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2A090-D498-4254-B20E-325056052AD5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1363,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1431,11 +1441,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B395BD1A-9575-4337-A8CA-2FD919A3D0CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46038BE1-344B-4802-A32B-A3C1518A894A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
     <sheet name="Norway" sheetId="28" r:id="rId17"/>
     <sheet name="Poland" sheetId="29" r:id="rId18"/>
+    <sheet name="UK" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3CBD4A-DF4A-4240-A1CF-7D85BEC3D49C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
@@ -1795,6 +1799,127 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0852E-F7FA-41EB-87FB-39D9FD36064F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
